--- a/venv/templates/wholeCNS_region_definitions_cordsegments.xlsx
+++ b/venv/templates/wholeCNS_region_definitions_cordsegments.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -474,7 +473,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1553472</v>
+        <v>517824</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +494,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1337064</v>
+        <v>445688</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +515,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>259224</v>
+        <v>86408</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +536,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>255552</v>
+        <v>85184</v>
       </c>
     </row>
     <row r="6">
@@ -558,7 +557,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>518256</v>
+        <v>172752</v>
       </c>
     </row>
     <row r="7">
@@ -579,7 +578,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>553944</v>
+        <v>184648</v>
       </c>
     </row>
     <row r="8">
@@ -600,7 +599,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>529656</v>
+        <v>176552</v>
       </c>
     </row>
     <row r="9">
@@ -621,7 +620,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>562320</v>
+        <v>187440</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +641,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103344</v>
+        <v>34448</v>
       </c>
     </row>
     <row r="11">
@@ -663,7 +662,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>124728</v>
+        <v>41576</v>
       </c>
     </row>
     <row r="12">
@@ -684,7 +683,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>132096</v>
+        <v>44032</v>
       </c>
     </row>
     <row r="13">
@@ -705,7 +704,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>148080</v>
+        <v>49360</v>
       </c>
     </row>
     <row r="14">
@@ -726,7 +725,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>822744</v>
+        <v>274248</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +746,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>846528</v>
+        <v>282176</v>
       </c>
     </row>
     <row r="16">
@@ -768,7 +767,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>455160</v>
+        <v>151720</v>
       </c>
     </row>
     <row r="17">
@@ -789,7 +788,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>452688</v>
+        <v>150896</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +809,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>53952</v>
+        <v>17984</v>
       </c>
     </row>
     <row r="19">
@@ -831,7 +830,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53616</v>
+        <v>17872</v>
       </c>
     </row>
     <row r="20">
@@ -852,7 +851,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>78264</v>
+        <v>26088</v>
       </c>
     </row>
     <row r="21">
@@ -873,7 +872,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>77448</v>
+        <v>25816</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +893,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>80088</v>
+        <v>26696</v>
       </c>
     </row>
     <row r="23">
@@ -915,7 +914,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>86760</v>
+        <v>28920</v>
       </c>
     </row>
     <row r="24">
@@ -936,7 +935,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>262488</v>
+        <v>87496</v>
       </c>
     </row>
     <row r="25">
@@ -957,7 +956,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>262608</v>
+        <v>87536</v>
       </c>
     </row>
     <row r="26">
@@ -978,7 +977,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221448</v>
+        <v>73816</v>
       </c>
     </row>
     <row r="27">
@@ -999,7 +998,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>163536</v>
+        <v>54512</v>
       </c>
     </row>
     <row r="28">
@@ -1020,7 +1019,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>64176</v>
+        <v>21392</v>
       </c>
     </row>
     <row r="29">
@@ -1041,7 +1040,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>65064</v>
+        <v>21688</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1061,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>182976</v>
+        <v>60992</v>
       </c>
     </row>
     <row r="31">
@@ -1083,7 +1082,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>194904</v>
+        <v>64968</v>
       </c>
     </row>
     <row r="32">
@@ -1104,7 +1103,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>151272</v>
+        <v>50424</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1124,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>136080</v>
+        <v>45360</v>
       </c>
     </row>
     <row r="34">
@@ -1146,7 +1145,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>621744</v>
+        <v>207248</v>
       </c>
     </row>
     <row r="35">
@@ -1167,7 +1166,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>703200</v>
+        <v>234400</v>
       </c>
     </row>
     <row r="36">
@@ -1188,7 +1187,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>283200</v>
+        <v>94400</v>
       </c>
     </row>
     <row r="37">
@@ -1209,7 +1208,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>279600</v>
+        <v>93200</v>
       </c>
     </row>
     <row r="38">
@@ -1230,7 +1229,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>151320</v>
+        <v>50440</v>
       </c>
     </row>
     <row r="39">
@@ -1251,7 +1250,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>180624</v>
+        <v>60208</v>
       </c>
     </row>
     <row r="40">
@@ -1272,7 +1271,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>239976</v>
+        <v>79992</v>
       </c>
     </row>
     <row r="41">
@@ -1293,7 +1292,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>209304</v>
+        <v>69768</v>
       </c>
     </row>
     <row r="42">
@@ -1314,7 +1313,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>280896</v>
+        <v>93632</v>
       </c>
     </row>
     <row r="43">
@@ -1335,7 +1334,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>188112</v>
+        <v>62704</v>
       </c>
     </row>
     <row r="44">
@@ -1356,7 +1355,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>923088</v>
+        <v>307696</v>
       </c>
     </row>
     <row r="45">
@@ -1377,7 +1376,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>953616</v>
+        <v>317872</v>
       </c>
     </row>
     <row r="46">
@@ -1398,7 +1397,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>393840</v>
+        <v>131280</v>
       </c>
     </row>
     <row r="47">
@@ -1419,7 +1418,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>394536</v>
+        <v>131512</v>
       </c>
     </row>
     <row r="48">
@@ -1440,7 +1439,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>144912</v>
+        <v>48304</v>
       </c>
     </row>
     <row r="49">
@@ -1461,7 +1460,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>124848</v>
+        <v>41616</v>
       </c>
     </row>
     <row r="50">
@@ -1482,7 +1481,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>187104</v>
+        <v>62368</v>
       </c>
     </row>
     <row r="51">
@@ -1503,7 +1502,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>143400</v>
+        <v>47800</v>
       </c>
     </row>
     <row r="52">
@@ -1524,7 +1523,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>130944</v>
+        <v>43648</v>
       </c>
     </row>
     <row r="53">
@@ -1545,7 +1544,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>216504</v>
+        <v>72168</v>
       </c>
     </row>
     <row r="54">
@@ -1566,7 +1565,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>273000</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="55">
@@ -1587,7 +1586,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>262248</v>
+        <v>87416</v>
       </c>
     </row>
     <row r="56">
@@ -1608,7 +1607,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>500256</v>
+        <v>166752</v>
       </c>
     </row>
     <row r="57">
@@ -1629,7 +1628,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>461472</v>
+        <v>153824</v>
       </c>
     </row>
     <row r="58">
@@ -1650,7 +1649,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1074888</v>
+        <v>358296</v>
       </c>
     </row>
     <row r="59">
@@ -1671,7 +1670,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>128736</v>
+        <v>42912</v>
       </c>
     </row>
     <row r="60">
@@ -1692,7 +1691,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>102384</v>
+        <v>34128</v>
       </c>
     </row>
     <row r="61">
@@ -1713,7 +1712,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>278856</v>
+        <v>92952</v>
       </c>
     </row>
     <row r="62">
@@ -1734,7 +1733,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>324912</v>
+        <v>108304</v>
       </c>
     </row>
     <row r="63">
@@ -1755,7 +1754,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>126432</v>
+        <v>42144</v>
       </c>
     </row>
     <row r="64">
@@ -1776,7 +1775,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>112512</v>
+        <v>37504</v>
       </c>
     </row>
     <row r="65">
@@ -1797,7 +1796,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>62448</v>
+        <v>20816</v>
       </c>
     </row>
     <row r="66">
@@ -1818,7 +1817,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>74304</v>
+        <v>24768</v>
       </c>
     </row>
     <row r="67">
@@ -1839,7 +1838,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>336960</v>
+        <v>112320</v>
       </c>
     </row>
     <row r="68">
@@ -1860,7 +1859,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>297024</v>
+        <v>99008</v>
       </c>
     </row>
     <row r="69">
@@ -1881,7 +1880,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>55728</v>
+        <v>18576</v>
       </c>
     </row>
     <row r="70">
@@ -1902,7 +1901,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>61896</v>
+        <v>20632</v>
       </c>
     </row>
     <row r="71">
@@ -1923,7 +1922,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>137256</v>
+        <v>45752</v>
       </c>
     </row>
     <row r="72">
@@ -1944,7 +1943,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>167064</v>
+        <v>55688</v>
       </c>
     </row>
     <row r="73">
@@ -1965,7 +1964,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>158472</v>
+        <v>52824</v>
       </c>
     </row>
     <row r="74">
@@ -1986,7 +1985,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>123744</v>
+        <v>41248</v>
       </c>
     </row>
     <row r="75">
@@ -2007,7 +2006,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>171288</v>
+        <v>57096</v>
       </c>
     </row>
     <row r="76">
@@ -2028,7 +2027,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>177624</v>
+        <v>59208</v>
       </c>
     </row>
     <row r="77">
@@ -2049,7 +2048,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>59856</v>
+        <v>19952</v>
       </c>
     </row>
     <row r="78">
@@ -2070,7 +2069,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>67656</v>
+        <v>22552</v>
       </c>
     </row>
     <row r="79">
@@ -2091,7 +2090,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>171480</v>
+        <v>57160</v>
       </c>
     </row>
     <row r="80">
@@ -2112,7 +2111,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>187392</v>
+        <v>62464</v>
       </c>
     </row>
     <row r="81">
@@ -2133,7 +2132,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>102960</v>
+        <v>34320</v>
       </c>
     </row>
     <row r="82">
@@ -2154,7 +2153,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>106776</v>
+        <v>35592</v>
       </c>
     </row>
     <row r="83">
@@ -2175,7 +2174,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>71952</v>
+        <v>23984</v>
       </c>
     </row>
     <row r="84">
@@ -2196,7 +2195,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>68952</v>
+        <v>22984</v>
       </c>
     </row>
     <row r="85">
@@ -2217,7 +2216,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>53352</v>
+        <v>17784</v>
       </c>
     </row>
     <row r="86">
@@ -2238,7 +2237,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>60168</v>
+        <v>20056</v>
       </c>
     </row>
     <row r="87">
@@ -2259,7 +2258,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>84912</v>
+        <v>28304</v>
       </c>
     </row>
     <row r="88">
@@ -2280,7 +2279,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>107856</v>
+        <v>35952</v>
       </c>
     </row>
     <row r="89">
@@ -2301,7 +2300,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29040</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="90">
@@ -2322,7 +2321,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>16152</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="91">
@@ -2343,7 +2342,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>485664</v>
+        <v>161888</v>
       </c>
     </row>
     <row r="92">
@@ -2364,7 +2363,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>510624</v>
+        <v>170208</v>
       </c>
     </row>
     <row r="93">
@@ -2385,7 +2384,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>245712</v>
+        <v>81904</v>
       </c>
     </row>
     <row r="94">
@@ -2406,7 +2405,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>258744</v>
+        <v>86248</v>
       </c>
     </row>
     <row r="95">
@@ -2427,7 +2426,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>99960</v>
+        <v>33320</v>
       </c>
     </row>
     <row r="96">
@@ -2448,7 +2447,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>103272</v>
+        <v>34424</v>
       </c>
     </row>
     <row r="97">
@@ -2469,7 +2468,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>155256</v>
+        <v>51752</v>
       </c>
     </row>
     <row r="98">
@@ -2490,7 +2489,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>167376</v>
+        <v>55792</v>
       </c>
     </row>
     <row r="99">
@@ -2511,7 +2510,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>51528</v>
+        <v>17176</v>
       </c>
     </row>
     <row r="100">
@@ -2532,7 +2531,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57432</v>
+        <v>19144</v>
       </c>
     </row>
     <row r="101">
@@ -2553,7 +2552,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>135000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="102">
@@ -2574,7 +2573,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>147048</v>
+        <v>49016</v>
       </c>
     </row>
     <row r="103">
@@ -2616,7 +2615,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>62544</v>
+        <v>20848</v>
       </c>
     </row>
     <row r="105">
@@ -2637,7 +2636,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>16032</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="106">
@@ -2658,7 +2657,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>21264</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="107">
@@ -2679,7 +2678,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>451944</v>
+        <v>150648</v>
       </c>
     </row>
     <row r="108">
@@ -2700,7 +2699,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>492000</v>
+        <v>164000</v>
       </c>
     </row>
     <row r="109">
@@ -2721,7 +2720,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>365184</v>
+        <v>121728</v>
       </c>
     </row>
     <row r="110">
@@ -2742,7 +2741,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>408912</v>
+        <v>136304</v>
       </c>
     </row>
     <row r="111">
@@ -2763,7 +2762,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25728</v>
+        <v>8576</v>
       </c>
     </row>
     <row r="112">
@@ -2784,7 +2783,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36480</v>
+        <v>12160</v>
       </c>
     </row>
     <row r="113">
@@ -2805,7 +2804,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>168984</v>
+        <v>56328</v>
       </c>
     </row>
     <row r="114">
@@ -2826,7 +2825,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>120312</v>
+        <v>40104</v>
       </c>
     </row>
     <row r="115">
@@ -2847,7 +2846,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>245208</v>
+        <v>81736</v>
       </c>
     </row>
     <row r="116">
@@ -2868,7 +2867,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>295776</v>
+        <v>98592</v>
       </c>
     </row>
     <row r="117">
@@ -2889,7 +2888,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>111336</v>
+        <v>37112</v>
       </c>
     </row>
     <row r="118">
@@ -2910,7 +2909,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>644220</v>
+        <v>214740</v>
       </c>
     </row>
     <row r="119">
@@ -2931,7 +2930,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>250272</v>
+        <v>83424</v>
       </c>
     </row>
     <row r="120">
@@ -2973,7 +2972,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>8064</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="122">
@@ -3015,7 +3014,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1030</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="124">
@@ -3036,7 +3035,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4656</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="125">
@@ -3057,7 +3056,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>9024</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="126">
@@ -3078,7 +3077,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2880</v>
+        <v>960</v>
       </c>
     </row>
     <row r="127">
@@ -3099,7 +3098,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>63408</v>
+        <v>21136</v>
       </c>
     </row>
     <row r="128">
@@ -3120,7 +3119,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3481</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="129">
